--- a/Fuels_case_input_test_190827.xlsx
+++ b/Fuels_case_input_test_190827.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truggles/IDrive-Sync/Carnegie/SEM-1.2_HOME/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truggles/IDrive-Sync/Carnegie/SEM-1.2_CIW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D9DD63-3A0F-C24B-843D-286574D2EAAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5E5E67-AF01-8648-A831-CC56BCBA88F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10500" yWindow="-28160" windowWidth="49300" windowHeight="26420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_test_190726" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="MMBtu_per_Gallon_Gasoline">case_input_test_190726!$B$49</definedName>
     <definedName name="MWh_per_MMBtu">case_input_test_190726!$B$48</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1343,12 +1343,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <pane xSplit="6740" ySplit="4420" topLeftCell="B142" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="5480" ySplit="5320" topLeftCell="A125" activePane="bottomRight"/>
       <selection activeCell="A138" sqref="A138"/>
-      <selection pane="topRight" activeCell="B138" sqref="B138"/>
+      <selection pane="topRight" activeCell="F81" sqref="F81"/>
       <selection pane="bottomLeft" activeCell="A157" sqref="A157"/>
-      <selection pane="bottomRight" activeCell="C153" sqref="C153"/>
+      <selection pane="bottomRight" activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2930,7 +2930,7 @@
         <v>195</v>
       </c>
       <c r="B49" s="8">
-        <f>114000/1000000</f>
+        <f>114000/10^6</f>
         <v>0.114</v>
       </c>
       <c r="C49" s="53" t="s">
@@ -7250,7 +7250,7 @@
         <v>96</v>
       </c>
       <c r="F150" s="8">
-        <f>((202+32+32)*4.6)/0.69</f>
+        <f>((202+32+32)*4.6)/690*1000</f>
         <v>1773.3333333333333</v>
       </c>
       <c r="G150" s="53" t="s">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="B151" s="67">
         <f>N151</f>
-        <v>1.7646935240960653E-3</v>
+        <v>2.7204936137143852E-7</v>
       </c>
       <c r="C151" s="53" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F151" s="8">
-        <f>((33)*4.6)/0.69</f>
-        <v>220</v>
+        <f>((33*10^6))/(973*10^9)*1000</f>
+        <v>3.3915724563206573E-2</v>
       </c>
       <c r="G151" s="53" t="s">
         <v>210</v>
@@ -7325,11 +7325,11 @@
       <c r="L151" s="4"/>
       <c r="M151" s="28">
         <f t="shared" ref="M151" si="13">F151*J151+K151</f>
-        <v>15.46898578739177</v>
+        <v>2.3847357328969834E-3</v>
       </c>
       <c r="N151" s="41">
         <f>M151/HOURS_PER_YEAR</f>
-        <v>1.7646935240960653E-3</v>
+        <v>2.7204936137143852E-7</v>
       </c>
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
@@ -7435,13 +7435,13 @@
       </c>
       <c r="B154" s="49">
         <f>D154*(236/690)/1000</f>
-        <v>3.4202898550724636E-4</v>
+        <v>1.7101449275362317E-2</v>
       </c>
       <c r="C154" s="53" t="s">
         <v>99</v>
       </c>
       <c r="D154" s="68">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E154" s="53" t="s">
         <v>196</v>
@@ -7577,13 +7577,13 @@
       </c>
       <c r="B158" s="49">
         <f>D158/(MMBtu_per_Gallon_Gasoline*MWh_per_MMBtu*1000)</f>
-        <v>0.14965533478631324</v>
+        <v>2.9931066957262647E-2</v>
       </c>
       <c r="C158" s="53" t="s">
         <v>99</v>
       </c>
       <c r="D158" s="68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>194</v>

--- a/Fuels_case_input_test_190827.xlsx
+++ b/Fuels_case_input_test_190827.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truggles/IDrive-Sync/Carnegie/SEM-1.2_CIW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5E5E67-AF01-8648-A831-CC56BCBA88F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010E2698-0A04-D746-B765-61145FB04883}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-28160" windowWidth="49300" windowHeight="26420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="MMBtu_per_Gallon_Gasoline">case_input_test_190726!$B$49</definedName>
     <definedName name="MWh_per_MMBtu">case_input_test_190726!$B$48</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="212">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>DATA_PATH</t>
-  </si>
-  <si>
-    <t>Input_Data/Shaner-et-al_E&amp;ES2018</t>
   </si>
   <si>
     <t>DATA_PATH is where the input data will reside. It is prepended to the wind, solar, and demand file specifications listed in the cases. (no trailing slash)</t>
@@ -271,9 +268,6 @@
     <t>DEMAND_FILE</t>
   </si>
   <si>
-    <t>demand_series_Shaner_normalized_to_1_mean.csv</t>
-  </si>
-  <si>
     <t>NORMALIZE_DEMAND_TO_ONE</t>
   </si>
   <si>
@@ -319,9 +313,6 @@
     <t>SOLAR_CAPACITY_FILE</t>
   </si>
   <si>
-    <t>solar_series_Shaner_normalized_to_0.2_mean.csv</t>
-  </si>
-  <si>
     <t>FIXED_COST_SOLAR</t>
   </si>
   <si>
@@ -359,9 +350,6 @@
   </si>
   <si>
     <t>WIND_CAPACITY_FILE</t>
-  </si>
-  <si>
-    <t>wind_series_Shaner_normalized_to_0.38_mean.csv</t>
   </si>
   <si>
     <t>FIXED_COST_WIND</t>
@@ -580,12 +568,6 @@
     <t>VAR_CO2_WIND2</t>
   </si>
   <si>
-    <t>wind2_series_Shaner_normalized_to_0.38_mean.csv</t>
-  </si>
-  <si>
-    <t>solar2_series_Shaner_normalized_to_0.2_mean.csv</t>
-  </si>
-  <si>
     <t>CAPACITY_STORAGE</t>
   </si>
   <si>
@@ -605,12 +587,6 @@
   </si>
   <si>
     <t>CHARGING_TIME_STORAGE2</t>
-  </si>
-  <si>
-    <t>test_190726</t>
-  </si>
-  <si>
-    <t>FIXED_COST_FUEL</t>
   </si>
   <si>
     <t>FuelTest</t>
@@ -680,6 +656,21 @@
   </si>
   <si>
     <t>EFFICIENCY_FUEL_CHEM_PLANT</t>
+  </si>
+  <si>
+    <t>Input_Data/SEM_TEMOA</t>
+  </si>
+  <si>
+    <t>test_190829_v5</t>
+  </si>
+  <si>
+    <t>SEM_TEMOA_demand.csv</t>
+  </si>
+  <si>
+    <t>SEM_TEMOA_solar.csv</t>
+  </si>
+  <si>
+    <t>SEM_TEMOA_wind.csv</t>
   </si>
 </sst>
 </file>
@@ -1341,14 +1332,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ1029"/>
+  <dimension ref="A1:AR1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5480" ySplit="5320" topLeftCell="A125" activePane="bottomRight"/>
-      <selection activeCell="A138" sqref="A138"/>
+      <pane xSplit="5480" ySplit="5320" topLeftCell="A83" activePane="bottomRight"/>
+      <selection activeCell="A62" sqref="A62:XFD62"/>
       <selection pane="topRight" activeCell="F81" sqref="F81"/>
-      <selection pane="bottomLeft" activeCell="A157" sqref="A157"/>
-      <selection pane="bottomRight" activeCell="A158" sqref="A158"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A62:XFD80"/>
+      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2927,14 +2918,14 @@
     </row>
     <row r="49" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B49" s="8">
         <f>114000/10^6</f>
         <v>0.114</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="3"/>
@@ -3065,7 +3056,7 @@
         <v>33</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>34</v>
@@ -3102,10 +3093,10 @@
         <v>35</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="3"/>
@@ -3136,13 +3127,13 @@
     </row>
     <row r="55" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="C55" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="3"/>
@@ -3204,13 +3195,13 @@
     </row>
     <row r="57" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="3"/>
@@ -3241,13 +3232,13 @@
     </row>
     <row r="58" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="15" t="b">
         <v>0</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="3"/>
@@ -3278,13 +3269,13 @@
     </row>
     <row r="59" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="3"/>
@@ -3346,10 +3337,10 @@
     </row>
     <row r="61" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="13"/>
@@ -3382,92 +3373,92 @@
     <row r="62" spans="1:29" s="66" customFormat="1" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="60"/>
       <c r="B62" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="D62" s="61" t="s">
         <v>50</v>
-      </c>
-      <c r="D62" s="61" t="s">
-        <v>51</v>
       </c>
       <c r="E62" s="61"/>
       <c r="F62" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G62" s="61" t="s">
+      <c r="H62" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="H62" s="62" t="s">
+      <c r="I62" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="I62" s="61" t="s">
+      <c r="J62" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="J62" s="63" t="s">
+      <c r="K62" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="K62" s="62" t="s">
+      <c r="L62" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L62" s="61" t="s">
+      <c r="M62" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="M62" s="63" t="s">
+      <c r="N62" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="N62" s="64" t="s">
+      <c r="O62" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="O62" s="62" t="s">
+      <c r="P62" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="62" t="s">
+      <c r="Q62" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="Q62" s="65" t="s">
+      <c r="R62" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="R62" s="61" t="s">
+      <c r="S62" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="S62" s="62" t="s">
+      <c r="T62" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="T62" s="61" t="s">
+      <c r="U62" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="U62" s="63" t="s">
+      <c r="V62" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="V62" s="63" t="s">
+      <c r="W62" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="W62" s="62" t="s">
+      <c r="X62" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="X62" s="61" t="s">
+      <c r="Y62" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="Y62" s="62" t="s">
+      <c r="Z62" s="64" t="s">
         <v>71</v>
-      </c>
-      <c r="Z62" s="64" t="s">
-        <v>72</v>
       </c>
       <c r="AA62" s="61"/>
       <c r="AB62" s="61"/>
       <c r="AC62" s="61"/>
     </row>
-    <row r="63" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="16">
         <v>1000000000000</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="8"/>
@@ -3495,16 +3486,16 @@
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
     </row>
-    <row r="64" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="16">
         <v>1000000000000</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="8"/>
@@ -3532,7 +3523,7 @@
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
     </row>
-    <row r="65" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
       <c r="C65" s="3"/>
@@ -3563,12 +3554,12 @@
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
     </row>
-    <row r="66" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
@@ -3598,16 +3589,16 @@
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
     </row>
-    <row r="67" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B67" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="8"/>
@@ -3635,7 +3626,7 @@
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
     </row>
-    <row r="68" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="15"/>
       <c r="C68" s="3"/>
@@ -3666,16 +3657,16 @@
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
     </row>
-    <row r="69" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B69" s="15">
         <v>2015</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="8"/>
@@ -3703,16 +3694,16 @@
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
     </row>
-    <row r="70" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B70" s="15">
         <v>1</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="8"/>
@@ -3740,16 +3731,16 @@
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
     </row>
-    <row r="71" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B71" s="15">
         <v>1</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="8"/>
@@ -3777,16 +3768,16 @@
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
     </row>
-    <row r="72" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B72" s="15">
         <v>1</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="8"/>
@@ -3814,16 +3805,16 @@
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
     </row>
-    <row r="73" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B73" s="15">
         <v>2015</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="8"/>
@@ -3851,16 +3842,16 @@
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
     </row>
-    <row r="74" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B74" s="15">
         <v>12</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="8"/>
@@ -3888,16 +3879,16 @@
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
     </row>
-    <row r="75" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B75" s="15">
         <v>31</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="8"/>
@@ -3925,16 +3916,16 @@
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
     </row>
-    <row r="76" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B76" s="15">
         <v>24</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="8"/>
@@ -3962,7 +3953,7 @@
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
     </row>
-    <row r="77" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
       <c r="B77" s="15"/>
       <c r="C77" s="3"/>
@@ -3993,18 +3984,18 @@
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
     </row>
-    <row r="78" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B78" s="15">
         <v>0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="8"/>
@@ -4032,7 +4023,7 @@
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
     </row>
-    <row r="79" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="3"/>
@@ -4065,10 +4056,10 @@
     </row>
     <row r="80" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B80" s="50" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
@@ -4100,17 +4091,17 @@
     </row>
     <row r="81" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B81" s="26">
         <f>N81</f>
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="8">
@@ -4164,17 +4155,17 @@
     </row>
     <row r="82" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B82" s="16">
         <f>Z82</f>
         <v>1E-8</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="8"/>
@@ -4232,16 +4223,16 @@
     </row>
     <row r="83" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B83" s="15">
         <v>0</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="8"/>
@@ -4271,16 +4262,16 @@
     </row>
     <row r="84" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B84" s="15">
         <v>0</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="8"/>
@@ -4341,10 +4332,10 @@
     </row>
     <row r="86" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B86" s="50" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -4376,17 +4367,17 @@
     </row>
     <row r="87" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B87" s="26">
         <f>N87</f>
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="8">
@@ -4440,17 +4431,17 @@
     </row>
     <row r="88" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B88" s="16">
         <f>Z88</f>
         <v>1E-8</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="8"/>
@@ -4508,16 +4499,16 @@
     </row>
     <row r="89" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B89" s="15">
         <v>0</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="8"/>
@@ -4547,16 +4538,16 @@
     </row>
     <row r="90" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B90" s="15">
         <v>0</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="8"/>
@@ -4617,10 +4608,10 @@
     </row>
     <row r="92" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4652,17 +4643,17 @@
     </row>
     <row r="93" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B93" s="26">
         <f>N93</f>
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="8">
@@ -4716,17 +4707,17 @@
     </row>
     <row r="94" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B94" s="16">
         <f>Z94</f>
         <v>1.05E-8</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="8"/>
@@ -4784,16 +4775,16 @@
     </row>
     <row r="95" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B95" s="15">
         <v>0</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="8"/>
@@ -4823,16 +4814,16 @@
     </row>
     <row r="96" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B96" s="15">
         <v>0</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="8"/>
@@ -4893,10 +4884,10 @@
     </row>
     <row r="98" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4928,17 +4919,17 @@
     </row>
     <row r="99" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B99" s="26">
         <f>N99</f>
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="8">
@@ -4992,17 +4983,17 @@
     </row>
     <row r="100" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B100" s="16">
         <f>Z100</f>
         <v>1.05E-8</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="8"/>
@@ -5060,16 +5051,16 @@
     </row>
     <row r="101" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B101" s="15">
         <v>0</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="8"/>
@@ -5099,16 +5090,16 @@
     </row>
     <row r="102" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B102" s="15">
         <v>0</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="8"/>
@@ -5169,14 +5160,14 @@
     </row>
     <row r="104" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B104" s="26">
         <f>N104</f>
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="4"/>
@@ -5231,14 +5222,14 @@
     </row>
     <row r="105" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B105" s="16">
         <f>Z105</f>
         <v>3.8992074681058302E-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="4"/>
@@ -5300,16 +5291,16 @@
     </row>
     <row r="106" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B106" s="15">
         <v>0</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="8"/>
@@ -5339,16 +5330,16 @@
     </row>
     <row r="107" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B107" s="34">
         <v>0.46100000000000002</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="8"/>
@@ -5409,14 +5400,14 @@
     </row>
     <row r="109" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B109" s="26">
         <f>N109</f>
         <v>2.7271220888813726E-2</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
@@ -5471,14 +5462,14 @@
     </row>
     <row r="110" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B110" s="16">
         <f>Z110</f>
         <v>5.6563468785905562E-2</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
@@ -5540,16 +5531,16 @@
     </row>
     <row r="111" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B111" s="15">
         <v>0</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="8"/>
@@ -5579,16 +5570,16 @@
     </row>
     <row r="112" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B112" s="34">
         <v>0.16700000000000001</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="8"/>
@@ -5649,17 +5640,17 @@
     </row>
     <row r="114" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B114" s="26">
         <f>N114</f>
         <v>6.4753901191501415E-2</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="8">
@@ -5708,24 +5699,24 @@
       <c r="Y114" s="25"/>
       <c r="Z114" s="37"/>
       <c r="AA114" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
     </row>
     <row r="115" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B115" s="16">
         <f>Z115</f>
         <v>2.2838149285310763E-2</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="8"/>
@@ -5781,23 +5772,23 @@
         <v>2.2838149285310763E-2</v>
       </c>
       <c r="AA115" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB115" s="4"/>
       <c r="AC115" s="4"/>
     </row>
     <row r="116" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B116" s="15">
         <v>0</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="8"/>
@@ -5827,16 +5818,16 @@
     </row>
     <row r="117" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B117" s="15">
         <v>0</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="8"/>
@@ -5897,17 +5888,17 @@
     </row>
     <row r="119" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B119" s="26">
         <f>N119</f>
         <v>4.2392529406082022E-3</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="8">
@@ -5958,14 +5949,14 @@
     </row>
     <row r="120" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B120" s="16">
         <f t="shared" ref="B120:B121" si="0">Z120</f>
         <v>0</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="4"/>
@@ -6012,14 +6003,14 @@
     </row>
     <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B121" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="4"/>
@@ -6066,14 +6057,14 @@
     </row>
     <row r="122" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="52" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B122" s="15">
         <v>0.9</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="8"/>
@@ -6103,17 +6094,17 @@
     </row>
     <row r="123" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="52" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B123" s="26">
         <f>1.01^(1/HOURS_PER_YEAR)-1</f>
         <v>1.1351290010175319E-6</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E123" s="9" t="str">
         <f>HYPERLINK("https://batteryuniversity.com/learn/article/elevating_self_discharge","Buchmann, 2018, Battery University")</f>
@@ -6146,17 +6137,17 @@
     </row>
     <row r="124" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="52" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B124" s="34">
         <f>1568/261</f>
         <v>6.0076628352490422</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="8"/>
@@ -6217,17 +6208,17 @@
     </row>
     <row r="126" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B126" s="26">
         <f>N126</f>
         <v>4.2392529406082022E-3</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="8">
@@ -6278,14 +6269,14 @@
     </row>
     <row r="127" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B127" s="16">
         <f t="shared" ref="B127:B128" si="3">Z127</f>
         <v>0</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="4"/>
@@ -6332,14 +6323,14 @@
     </row>
     <row r="128" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B128" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="4"/>
@@ -6386,14 +6377,14 @@
     </row>
     <row r="129" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="52" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B129" s="15">
         <v>0.9</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="8"/>
@@ -6423,17 +6414,17 @@
     </row>
     <row r="130" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="52" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B130" s="26">
         <f>1.01^(1/HOURS_PER_YEAR)-1</f>
         <v>1.1351290010175319E-6</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E130" s="9" t="str">
         <f>HYPERLINK("https://batteryuniversity.com/learn/article/elevating_self_discharge","Buchmann, 2018, Battery University")</f>
@@ -6466,17 +6457,17 @@
     </row>
     <row r="131" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="52" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B131" s="34">
         <f>1568/261</f>
         <v>6.0076628352490422</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="8"/>
@@ -6537,17 +6528,17 @@
     </row>
     <row r="133" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="52" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B133" s="39">
         <f t="shared" ref="B133:B135" si="6">N133</f>
         <v>3.2304881600325706E-6</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="8">
@@ -6561,7 +6552,7 @@
         <v>20</v>
       </c>
       <c r="I133" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J133" s="27">
         <f>DISCOUNT_RATE*(1+DISCOUNT_RATE)^H133/((1+DISCOUNT_RATE)^H133-1)</f>
@@ -6597,14 +6588,14 @@
     </row>
     <row r="134" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="52" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B134" s="39">
         <f t="shared" si="6"/>
         <v>1.184512325345276E-2</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="4"/>
@@ -6619,7 +6610,7 @@
         <v>20</v>
       </c>
       <c r="I134" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J134" s="27">
         <f>DISCOUNT_RATE*(1+DISCOUNT_RATE)^H134/((1+DISCOUNT_RATE)^H134-1)</f>
@@ -6655,14 +6646,14 @@
     </row>
     <row r="135" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="52" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B135" s="39">
         <f t="shared" si="6"/>
         <v>4.9534151787166088E-2</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="4"/>
@@ -6677,7 +6668,7 @@
         <v>20</v>
       </c>
       <c r="I135" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J135" s="27">
         <f>DISCOUNT_RATE*(1+DISCOUNT_RATE)^H135/((1+DISCOUNT_RATE)^H135-1)</f>
@@ -6713,14 +6704,14 @@
     </row>
     <row r="136" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="52" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B136" s="16">
         <f t="shared" ref="B136:B137" si="9">Z136</f>
         <v>0</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="4"/>
@@ -6767,14 +6758,14 @@
     </row>
     <row r="137" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="52" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B137" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="4"/>
@@ -6821,17 +6812,17 @@
     </row>
     <row r="138" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="52" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B138" s="42">
         <f>1.0001^(1/HOURS_PER_YEAR)-1</f>
         <v>1.1407375488659E-8</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E138" s="9" t="str">
         <f>HYPERLINK("http://juser.fz-juelich.de/record/135790/files/Energie%26Umwelt_78-04.pdf","Crotogino et al., 2010, p43")</f>
@@ -6864,7 +6855,7 @@
     </row>
     <row r="139" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B139" s="42">
         <v>0.3</v>
@@ -6933,10 +6924,10 @@
     </row>
     <row r="141" spans="1:29" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="52" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="F141" s="8"/>
       <c r="H141" s="8"/>
@@ -6961,20 +6952,20 @@
     </row>
     <row r="142" spans="1:29" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="52" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B142" s="48">
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C142" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D142" s="46">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="E142" s="53" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F142" s="8"/>
       <c r="H142" s="8"/>
@@ -6999,17 +6990,17 @@
     </row>
     <row r="143" spans="1:29" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="52" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B143" s="48">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
       <c r="C143" s="53" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E143" s="53" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F143" s="8"/>
       <c r="H143" s="8"/>
@@ -7034,14 +7025,14 @@
     </row>
     <row r="144" spans="1:29" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="52" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B144" s="49">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="C144" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F144" s="8"/>
       <c r="H144" s="8"/>
@@ -7066,14 +7057,14 @@
     </row>
     <row r="145" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="52" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B145" s="49">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="C145" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F145" s="8"/>
       <c r="H145" s="8"/>
@@ -7098,16 +7089,16 @@
     </row>
     <row r="146" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="52" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B146" s="47">
         <v>0.1</v>
       </c>
       <c r="C146" s="53" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E146" s="53" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F146" s="8"/>
       <c r="H146" s="8"/>
@@ -7132,13 +7123,13 @@
     </row>
     <row r="147" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="52" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B147" s="47">
         <v>1</v>
       </c>
       <c r="D147" s="53" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F147" s="8"/>
       <c r="H147" s="8"/>
@@ -7187,27 +7178,27 @@
     </row>
     <row r="149" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="52" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B149" s="67">
         <f>N149</f>
         <v>1.430010548488715E-2</v>
       </c>
       <c r="C149" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F149" s="8">
         <f>850*1.83</f>
         <v>1555.5</v>
       </c>
       <c r="G149" s="53" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H149" s="8">
         <v>30</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J149" s="27">
         <f>DISCOUNT_RATE*(1+DISCOUNT_RATE)^H149/((1+DISCOUNT_RATE)^H149-1)</f>
@@ -7240,27 +7231,27 @@
     </row>
     <row r="150" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="52" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B150" s="67">
         <f>N150</f>
         <v>1.6302702492146069E-2</v>
       </c>
       <c r="C150" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F150" s="8">
         <f>((202+32+32)*4.6)/690*1000</f>
         <v>1773.3333333333333</v>
       </c>
       <c r="G150" s="53" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H150" s="8">
         <v>30</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J150" s="27">
         <f>DISCOUNT_RATE*(1+DISCOUNT_RATE)^H150/((1+DISCOUNT_RATE)^H150-1)</f>
@@ -7293,27 +7284,27 @@
     </row>
     <row r="151" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="52" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B151" s="67">
         <f>N151</f>
         <v>2.7204936137143852E-7</v>
       </c>
       <c r="C151" s="53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F151" s="8">
         <f>((33*10^6))/(973*10^9)*1000</f>
         <v>3.3915724563206573E-2</v>
       </c>
       <c r="G151" s="53" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H151" s="8">
         <v>80</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J151" s="27">
         <f>DISCOUNT_RATE*(1+DISCOUNT_RATE)^H151/((1+DISCOUNT_RATE)^H151-1)</f>
@@ -7346,16 +7337,16 @@
     </row>
     <row r="152" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="52" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B152" s="16">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D152" s="53" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F152" s="8"/>
       <c r="H152" s="8"/>
@@ -7380,14 +7371,14 @@
     </row>
     <row r="153" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="52" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B153" s="16">
         <f>Z153</f>
         <v>6.9107241876284586E-2</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F153" s="8"/>
       <c r="H153" s="8"/>
@@ -7421,7 +7412,7 @@
         <v>69.10724187628459</v>
       </c>
       <c r="X153" s="24" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Y153" s="25"/>
       <c r="Z153" s="31">
@@ -7431,20 +7422,20 @@
     </row>
     <row r="154" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="52" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B154" s="49">
         <f>D154*(236/690)/1000</f>
         <v>1.7101449275362317E-2</v>
       </c>
       <c r="C154" s="53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D154" s="68">
         <v>50</v>
       </c>
       <c r="E154" s="53" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F154" s="8"/>
       <c r="H154" s="8"/>
@@ -7469,7 +7460,7 @@
     </row>
     <row r="155" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="52" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B155" s="47">
         <f>0.446/B156</f>
@@ -7477,7 +7468,7 @@
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="53" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F155" s="8"/>
       <c r="H155" s="8"/>
@@ -7502,14 +7493,14 @@
     </row>
     <row r="156" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="52" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B156" s="47">
         <v>0.65900000000000003</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="53" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F156" s="8"/>
       <c r="H156" s="8"/>
@@ -7534,17 +7525,17 @@
     </row>
     <row r="157" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="52" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B157" s="49">
         <f>B138</f>
         <v>1.1407375488659E-8</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E157" s="9" t="str">
         <f>HYPERLINK("http://juser.fz-juelich.de/record/135790/files/Energie%26Umwelt_78-04.pdf","Crotogino et al., 2010, p43")</f>
@@ -7573,20 +7564,20 @@
     </row>
     <row r="158" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="52" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B158" s="49">
         <f>D158/(MMBtu_per_Gallon_Gasoline*MWh_per_MMBtu*1000)</f>
         <v>2.9931066957262647E-2</v>
       </c>
       <c r="C158" s="53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D158" s="68">
         <v>1</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F158" s="8"/>
       <c r="H158" s="8"/>
@@ -7657,15 +7648,15 @@
       <c r="Y160" s="25"/>
       <c r="Z160" s="20"/>
     </row>
-    <row r="161" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B161" s="15">
         <v>10</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="4"/>
@@ -7694,7 +7685,7 @@
       <c r="AB161" s="4"/>
       <c r="AC161" s="4"/>
     </row>
-    <row r="162" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="3"/>
@@ -7725,11 +7716,11 @@
       <c r="AB162" s="4"/>
       <c r="AC162" s="4"/>
     </row>
-    <row r="163" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="3"/>
@@ -7758,7 +7749,7 @@
       <c r="AB163" s="4"/>
       <c r="AC163" s="4"/>
     </row>
-    <row r="164" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="3"/>
@@ -7789,143 +7780,149 @@
       <c r="AB164" s="4"/>
       <c r="AC164" s="4"/>
     </row>
-    <row r="165" spans="1:43" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:44" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B165" s="43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="166" spans="1:44" s="44" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A166" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C166" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D166" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E166" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F166" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G166" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H166" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="I166" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J166" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="K166" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="L166" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="M166" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="N166" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="O166" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="P166" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q166" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="R166" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="S166" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="T166" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="U166" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="V166" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="W166" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="X166" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y166" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z166" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA166" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB166" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC166" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD166" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE166" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF166" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG166" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH166" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI166" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="B165" s="43" t="s">
+      <c r="AJ166" s="51" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="166" spans="1:43" s="44" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A166" s="44" t="s">
+      <c r="AK166" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="B166" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C166" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D166" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E166" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="F166" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="G166" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="H166" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="I166" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="J166" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="K166" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="L166" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="M166" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="N166" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="O166" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="P166" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q166" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="R166" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="S166" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="T166" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="U166" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="V166" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="W166" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="X166" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y166" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z166" s="51" t="s">
+      <c r="AL166" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM166" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN166" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO166" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP166" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ166" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR166" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="AA166" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB166" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC166" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD166" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE166" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF166" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG166" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH166" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI166" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ166" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK166" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL166" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM166" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN166" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="AO166" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP166" s="51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="167" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:44" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="55"/>
       <c r="C167" s="55"/>
       <c r="D167" s="55"/>
@@ -7966,11 +7963,10 @@
       <c r="AM167" s="55"/>
       <c r="AN167" s="55"/>
       <c r="AO167" s="55"/>
-      <c r="AP167" s="55"/>
-    </row>
-    <row r="168" spans="1:43" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:44" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="56" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B168" s="57">
         <v>2016</v>
@@ -8087,26 +8083,31 @@
         <v>1</v>
       </c>
       <c r="AN168" s="57">
+        <v>-1</v>
+      </c>
+      <c r="AO168" s="57">
         <v>1</v>
       </c>
-      <c r="AO168" s="57">
-        <v>-1</v>
-      </c>
-      <c r="AP168" s="57">
+      <c r="AP168" s="56">
         <v>1</v>
       </c>
-      <c r="AQ168" s="56"/>
-    </row>
-    <row r="169" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ168" s="59">
+        <v>1</v>
+      </c>
+      <c r="AR168" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:44" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="45"/>
     </row>
-    <row r="170" spans="1:43" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:44" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="54" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B170" s="43"/>
     </row>
-    <row r="171" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="3"/>
@@ -8137,7 +8138,7 @@
       <c r="AB171" s="4"/>
       <c r="AC171" s="4"/>
     </row>
-    <row r="172" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="3"/>
@@ -8168,7 +8169,7 @@
       <c r="AB172" s="4"/>
       <c r="AC172" s="4"/>
     </row>
-    <row r="173" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="3"/>
@@ -8199,7 +8200,7 @@
       <c r="AB173" s="4"/>
       <c r="AC173" s="4"/>
     </row>
-    <row r="174" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="3"/>
@@ -8230,7 +8231,7 @@
       <c r="AB174" s="4"/>
       <c r="AC174" s="4"/>
     </row>
-    <row r="175" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="3"/>
@@ -8261,7 +8262,7 @@
       <c r="AB175" s="4"/>
       <c r="AC175" s="4"/>
     </row>
-    <row r="176" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="3"/>

--- a/Fuels_case_input_test_190827.xlsx
+++ b/Fuels_case_input_test_190827.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truggles/IDrive-Sync/Carnegie/SEM-1.2_CIW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010E2698-0A04-D746-B765-61145FB04883}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA6EF21-FAB7-F846-8051-47F171EAA73F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="-28160" windowWidth="49300" windowHeight="26420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_test_190726" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="214">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -661,9 +661,6 @@
     <t>Input_Data/SEM_TEMOA</t>
   </si>
   <si>
-    <t>test_190829_v5</t>
-  </si>
-  <si>
     <t>SEM_TEMOA_demand.csv</t>
   </si>
   <si>
@@ -671,6 +668,15 @@
   </si>
   <si>
     <t>SEM_TEMOA_wind.csv</t>
+  </si>
+  <si>
+    <t>FUEL_DEMAND</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>test_190829_v6</t>
   </si>
 </sst>
 </file>
@@ -823,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1017,6 +1023,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1332,14 +1339,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR1029"/>
+  <dimension ref="A1:AS1030"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5480" ySplit="5320" topLeftCell="A83" activePane="bottomRight"/>
+      <pane xSplit="5480" ySplit="5320" topLeftCell="A42" activePane="bottomRight"/>
       <selection activeCell="A62" sqref="A62:XFD62"/>
       <selection pane="topRight" activeCell="F81" sqref="F81"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A62:XFD80"/>
-      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3056,7 +3063,7 @@
         <v>33</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>34</v>
@@ -3559,7 +3566,7 @@
         <v>76</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
@@ -4059,7 +4066,7 @@
         <v>91</v>
       </c>
       <c r="B80" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
@@ -4335,7 +4342,7 @@
         <v>167</v>
       </c>
       <c r="B86" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -4611,7 +4618,7 @@
         <v>104</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4887,7 +4894,7 @@
         <v>172</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -6927,7 +6934,7 @@
         <v>157</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F141" s="8"/>
       <c r="H141" s="8"/>
@@ -7601,8 +7608,17 @@
       <c r="Z158" s="20"/>
     </row>
     <row r="159" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="52"/>
-      <c r="B159" s="47"/>
+      <c r="A159" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B159" s="49">
+        <v>1</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D159" s="69"/>
+      <c r="E159" s="3"/>
       <c r="F159" s="8"/>
       <c r="H159" s="8"/>
       <c r="I159" s="3"/>
@@ -7648,20 +7664,10 @@
       <c r="Y160" s="25"/>
       <c r="Z160" s="20"/>
     </row>
-    <row r="161" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B161" s="15">
-        <v>10</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D161" s="3"/>
-      <c r="E161" s="4"/>
+    <row r="161" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="52"/>
+      <c r="B161" s="47"/>
       <c r="F161" s="8"/>
-      <c r="G161" s="3"/>
       <c r="H161" s="8"/>
       <c r="I161" s="3"/>
       <c r="J161" s="18"/>
@@ -7681,47 +7687,48 @@
       <c r="X161" s="24"/>
       <c r="Y161" s="25"/>
       <c r="Z161" s="20"/>
-      <c r="AA161" s="4"/>
-      <c r="AB161" s="4"/>
-      <c r="AC161" s="4"/>
-    </row>
-    <row r="162" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="3"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="4"/>
+    </row>
+    <row r="162" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B162" s="15">
+        <v>10</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="8"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="4"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="8"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="4"/>
-      <c r="P162" s="4"/>
-      <c r="Q162" s="4"/>
+      <c r="M162" s="18"/>
+      <c r="N162" s="20"/>
+      <c r="O162" s="8"/>
+      <c r="P162" s="8"/>
+      <c r="Q162" s="21"/>
       <c r="R162" s="4"/>
-      <c r="S162" s="4"/>
+      <c r="S162" s="8"/>
       <c r="T162" s="4"/>
-      <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
-      <c r="W162" s="4"/>
-      <c r="X162" s="4"/>
-      <c r="Y162" s="4"/>
-      <c r="Z162" s="4"/>
+      <c r="U162" s="22"/>
+      <c r="V162" s="22"/>
+      <c r="W162" s="23"/>
+      <c r="X162" s="24"/>
+      <c r="Y162" s="25"/>
+      <c r="Z162" s="20"/>
       <c r="AA162" s="4"/>
       <c r="AB162" s="4"/>
       <c r="AC162" s="4"/>
     </row>
-    <row r="163" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="C163" s="3"/>
       <c r="D163" s="4"/>
       <c r="E163" s="3"/>
       <c r="F163" s="4"/>
@@ -7749,10 +7756,12 @@
       <c r="AB163" s="4"/>
       <c r="AC163" s="4"/>
     </row>
-    <row r="164" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
-      <c r="C164" s="3"/>
+      <c r="C164" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="D164" s="4"/>
       <c r="E164" s="3"/>
       <c r="F164" s="4"/>
@@ -7780,365 +7789,371 @@
       <c r="AB164" s="4"/>
       <c r="AC164" s="4"/>
     </row>
-    <row r="165" spans="1:44" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="54" t="s">
+    <row r="165" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
+      <c r="T165" s="4"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="4"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
+      <c r="Z165" s="4"/>
+      <c r="AA165" s="4"/>
+      <c r="AB165" s="4"/>
+      <c r="AC165" s="4"/>
+    </row>
+    <row r="166" spans="1:45" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B165" s="43" t="s">
+      <c r="B166" s="43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="166" spans="1:44" s="44" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A166" s="44" t="s">
+    <row r="167" spans="1:45" s="44" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A167" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B166" s="51" t="s">
+      <c r="B167" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C166" s="51" t="s">
+      <c r="C167" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D166" s="51" t="s">
+      <c r="D167" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="E166" s="51" t="s">
+      <c r="E167" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F166" s="51" t="s">
+      <c r="F167" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G166" s="51" t="s">
+      <c r="G167" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="H166" s="51" t="s">
+      <c r="H167" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="I166" s="51" t="s">
+      <c r="I167" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="J166" s="51" t="s">
+      <c r="J167" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="K166" s="51" t="s">
+      <c r="K167" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="L166" s="51" t="s">
+      <c r="L167" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="M166" s="51" t="s">
+      <c r="M167" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="N166" s="51" t="s">
+      <c r="N167" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="O166" s="51" t="s">
+      <c r="O167" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="P166" s="51" t="s">
+      <c r="P167" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="Q166" s="51" t="s">
+      <c r="Q167" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="R166" s="51" t="s">
+      <c r="R167" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="S166" s="51" t="s">
+      <c r="S167" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="T166" s="51" t="s">
+      <c r="T167" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="U166" s="51" t="s">
+      <c r="U167" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="V166" s="51" t="s">
+      <c r="V167" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="W166" s="51" t="s">
+      <c r="W167" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="X166" s="51" t="s">
+      <c r="X167" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="Y166" s="51" t="s">
+      <c r="Y167" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="Z166" s="51" t="s">
+      <c r="Z167" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AA166" s="51" t="s">
+      <c r="AA167" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="AB166" s="51" t="s">
+      <c r="AB167" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="AC166" s="51" t="s">
+      <c r="AC167" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="AD166" s="51" t="s">
+      <c r="AD167" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="AE166" s="51" t="s">
+      <c r="AE167" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="AF166" s="51" t="s">
+      <c r="AF167" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="AG166" s="51" t="s">
+      <c r="AG167" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="AH166" s="51" t="s">
+      <c r="AH167" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="AI166" s="51" t="s">
+      <c r="AI167" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="AJ166" s="51" t="s">
+      <c r="AJ167" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="AK166" s="51" t="s">
+      <c r="AK167" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="AL166" s="51" t="s">
+      <c r="AL167" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AM166" s="51" t="s">
+      <c r="AM167" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="AN166" s="51" t="s">
+      <c r="AN167" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AO166" s="51" t="s">
+      <c r="AO167" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="AP166" s="44" t="s">
+      <c r="AP167" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="AQ166" s="44" t="s">
+      <c r="AQ167" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AR166" s="44" t="s">
+      <c r="AR167" s="44" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="167" spans="1:44" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="55"/>
-      <c r="C167" s="55"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="55"/>
-      <c r="F167" s="55"/>
-      <c r="G167" s="55"/>
-      <c r="H167" s="55"/>
-      <c r="I167" s="55"/>
-      <c r="J167" s="55"/>
-      <c r="K167" s="55"/>
-      <c r="L167" s="55"/>
-      <c r="M167" s="55"/>
-      <c r="N167" s="55"/>
-      <c r="O167" s="55"/>
-      <c r="P167" s="55"/>
-      <c r="Q167" s="55"/>
-      <c r="R167" s="55"/>
-      <c r="S167" s="55"/>
-      <c r="T167" s="55"/>
-      <c r="U167" s="55"/>
-      <c r="V167" s="55"/>
-      <c r="W167" s="55"/>
-      <c r="X167" s="55"/>
-      <c r="Y167" s="55"/>
-      <c r="Z167" s="55"/>
-      <c r="AA167" s="55"/>
-      <c r="AB167" s="55"/>
-      <c r="AC167" s="55"/>
-      <c r="AD167" s="55"/>
-      <c r="AE167" s="55"/>
-      <c r="AF167" s="55"/>
-      <c r="AG167" s="55"/>
-      <c r="AH167" s="55"/>
-      <c r="AI167" s="55"/>
-      <c r="AJ167" s="55"/>
-      <c r="AK167" s="55"/>
-      <c r="AL167" s="55"/>
-      <c r="AM167" s="55"/>
-      <c r="AN167" s="55"/>
-      <c r="AO167" s="55"/>
-    </row>
-    <row r="168" spans="1:44" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="56" t="s">
+      <c r="AS167" s="44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="55"/>
+      <c r="C168" s="55"/>
+      <c r="D168" s="55"/>
+      <c r="E168" s="55"/>
+      <c r="F168" s="55"/>
+      <c r="G168" s="55"/>
+      <c r="H168" s="55"/>
+      <c r="I168" s="55"/>
+      <c r="J168" s="55"/>
+      <c r="K168" s="55"/>
+      <c r="L168" s="55"/>
+      <c r="M168" s="55"/>
+      <c r="N168" s="55"/>
+      <c r="O168" s="55"/>
+      <c r="P168" s="55"/>
+      <c r="Q168" s="55"/>
+      <c r="R168" s="55"/>
+      <c r="S168" s="55"/>
+      <c r="T168" s="55"/>
+      <c r="U168" s="55"/>
+      <c r="V168" s="55"/>
+      <c r="W168" s="55"/>
+      <c r="X168" s="55"/>
+      <c r="Y168" s="55"/>
+      <c r="Z168" s="55"/>
+      <c r="AA168" s="55"/>
+      <c r="AB168" s="55"/>
+      <c r="AC168" s="55"/>
+      <c r="AD168" s="55"/>
+      <c r="AE168" s="55"/>
+      <c r="AF168" s="55"/>
+      <c r="AG168" s="55"/>
+      <c r="AH168" s="55"/>
+      <c r="AI168" s="55"/>
+      <c r="AJ168" s="55"/>
+      <c r="AK168" s="55"/>
+      <c r="AL168" s="55"/>
+      <c r="AM168" s="55"/>
+      <c r="AN168" s="55"/>
+      <c r="AO168" s="55"/>
+    </row>
+    <row r="169" spans="1:45" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="B168" s="57">
+      <c r="B169" s="57">
         <v>2016</v>
       </c>
-      <c r="C168" s="57">
+      <c r="C169" s="57">
         <v>1</v>
       </c>
-      <c r="D168" s="57">
+      <c r="D169" s="57">
         <v>2016</v>
       </c>
-      <c r="E168" s="57">
+      <c r="E169" s="57">
         <v>1</v>
       </c>
-      <c r="F168" s="57">
+      <c r="F169" s="57">
         <v>1</v>
       </c>
-      <c r="G168" s="57">
+      <c r="G169" s="57">
         <v>1</v>
       </c>
-      <c r="H168" s="57">
+      <c r="H169" s="57">
         <v>-1</v>
       </c>
-      <c r="I168" s="57">
+      <c r="I169" s="57">
         <v>1</v>
       </c>
-      <c r="J168" s="57">
+      <c r="J169" s="57">
         <v>1</v>
       </c>
-      <c r="K168" s="57">
+      <c r="K169" s="57">
         <v>1</v>
       </c>
-      <c r="L168" s="57">
+      <c r="L169" s="57">
         <v>-1</v>
       </c>
-      <c r="M168" s="57">
+      <c r="M169" s="57">
         <v>1</v>
       </c>
-      <c r="N168" s="57">
+      <c r="N169" s="57">
         <v>-1</v>
       </c>
-      <c r="O168" s="57">
+      <c r="O169" s="57">
         <v>1</v>
       </c>
-      <c r="P168" s="57">
+      <c r="P169" s="57">
         <v>-1</v>
       </c>
-      <c r="Q168" s="57">
+      <c r="Q169" s="57">
         <v>1</v>
       </c>
-      <c r="R168" s="57">
+      <c r="R169" s="57">
         <v>1</v>
       </c>
-      <c r="S168" s="57">
+      <c r="S169" s="57">
         <v>1</v>
       </c>
-      <c r="T168" s="57">
+      <c r="T169" s="57">
         <v>-1</v>
       </c>
-      <c r="U168" s="57">
+      <c r="U169" s="57">
         <v>-1</v>
       </c>
-      <c r="V168" s="57">
+      <c r="V169" s="57">
         <v>1</v>
       </c>
-      <c r="W168" s="57">
+      <c r="W169" s="57">
         <v>1</v>
       </c>
-      <c r="X168" s="57">
+      <c r="X169" s="57">
         <v>0.9</v>
       </c>
-      <c r="Y168" s="58">
+      <c r="Y169" s="58">
         <v>-1</v>
       </c>
-      <c r="Z168" s="58">
+      <c r="Z169" s="58">
         <v>-1</v>
       </c>
-      <c r="AA168" s="57">
+      <c r="AA169" s="57">
         <v>0.3</v>
       </c>
-      <c r="AB168" s="57">
+      <c r="AB169" s="57">
         <v>0.1</v>
       </c>
-      <c r="AC168" s="57">
+      <c r="AC169" s="57">
         <v>-1</v>
       </c>
-      <c r="AD168" s="58">
+      <c r="AD169" s="58">
         <v>1</v>
       </c>
-      <c r="AE168" s="58">
+      <c r="AE169" s="58">
         <v>1</v>
       </c>
-      <c r="AF168" s="57">
+      <c r="AF169" s="57">
         <v>1</v>
       </c>
-      <c r="AG168" s="57">
+      <c r="AG169" s="57">
         <v>-1</v>
       </c>
-      <c r="AH168" s="57">
+      <c r="AH169" s="57">
         <v>1</v>
       </c>
-      <c r="AI168" s="57">
+      <c r="AI169" s="57">
         <v>-1</v>
       </c>
-      <c r="AJ168" s="57">
+      <c r="AJ169" s="57">
         <v>1</v>
       </c>
-      <c r="AK168" s="57">
+      <c r="AK169" s="57">
         <v>1</v>
       </c>
-      <c r="AL168" s="57">
+      <c r="AL169" s="57">
         <v>1</v>
       </c>
-      <c r="AM168" s="57">
+      <c r="AM169" s="57">
         <v>1</v>
       </c>
-      <c r="AN168" s="57">
+      <c r="AN169" s="57">
         <v>-1</v>
       </c>
-      <c r="AO168" s="57">
+      <c r="AO169" s="57">
         <v>1</v>
       </c>
-      <c r="AP168" s="56">
+      <c r="AP169" s="56">
         <v>1</v>
       </c>
-      <c r="AQ168" s="59">
+      <c r="AQ169" s="59">
         <v>1</v>
       </c>
-      <c r="AR168" s="59">
+      <c r="AR169" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS169" s="59">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:44" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="45"/>
-    </row>
-    <row r="170" spans="1:44" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="54" t="s">
+    <row r="170" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="45"/>
+    </row>
+    <row r="171" spans="1:45" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="B170" s="43"/>
-    </row>
-    <row r="171" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="3"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="4"/>
-      <c r="O171" s="4"/>
-      <c r="P171" s="4"/>
-      <c r="Q171" s="4"/>
-      <c r="R171" s="4"/>
-      <c r="S171" s="4"/>
-      <c r="T171" s="4"/>
-      <c r="U171" s="4"/>
-      <c r="V171" s="4"/>
-      <c r="W171" s="4"/>
-      <c r="X171" s="4"/>
-      <c r="Y171" s="4"/>
-      <c r="Z171" s="4"/>
-      <c r="AA171" s="4"/>
-      <c r="AB171" s="4"/>
-      <c r="AC171" s="4"/>
-    </row>
-    <row r="172" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="43"/>
+    </row>
+    <row r="172" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="3"/>
@@ -8169,7 +8184,7 @@
       <c r="AB172" s="4"/>
       <c r="AC172" s="4"/>
     </row>
-    <row r="173" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="3"/>
@@ -8200,7 +8215,7 @@
       <c r="AB173" s="4"/>
       <c r="AC173" s="4"/>
     </row>
-    <row r="174" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="3"/>
@@ -8231,7 +8246,7 @@
       <c r="AB174" s="4"/>
       <c r="AC174" s="4"/>
     </row>
-    <row r="175" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="3"/>
@@ -8262,7 +8277,7 @@
       <c r="AB175" s="4"/>
       <c r="AC175" s="4"/>
     </row>
-    <row r="176" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="3"/>
@@ -34736,6 +34751,37 @@
       <c r="AB1029" s="4"/>
       <c r="AC1029" s="4"/>
     </row>
+    <row r="1030" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1030" s="3"/>
+      <c r="B1030" s="4"/>
+      <c r="C1030" s="3"/>
+      <c r="D1030" s="4"/>
+      <c r="E1030" s="3"/>
+      <c r="F1030" s="4"/>
+      <c r="G1030" s="3"/>
+      <c r="H1030" s="4"/>
+      <c r="I1030" s="4"/>
+      <c r="J1030" s="4"/>
+      <c r="K1030" s="4"/>
+      <c r="L1030" s="4"/>
+      <c r="M1030" s="4"/>
+      <c r="N1030" s="4"/>
+      <c r="O1030" s="4"/>
+      <c r="P1030" s="4"/>
+      <c r="Q1030" s="4"/>
+      <c r="R1030" s="4"/>
+      <c r="S1030" s="4"/>
+      <c r="T1030" s="4"/>
+      <c r="U1030" s="4"/>
+      <c r="V1030" s="4"/>
+      <c r="W1030" s="4"/>
+      <c r="X1030" s="4"/>
+      <c r="Y1030" s="4"/>
+      <c r="Z1030" s="4"/>
+      <c r="AA1030" s="4"/>
+      <c r="AB1030" s="4"/>
+      <c r="AC1030" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C47" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Fuels_case_input_test_190827.xlsx
+++ b/Fuels_case_input_test_190827.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truggles/IDrive-Sync/Carnegie/SEM-1.2_CIW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truggles/IDrive-Sync/Carnegie/SEM-1.2_HOME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA6EF21-FAB7-F846-8051-47F171EAA73F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C879C7-5F13-5243-8DF3-0CCF3C3EBC5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_test_190726" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="215">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -678,6 +678,9 @@
   <si>
     <t>test_190829_v6</t>
   </si>
+  <si>
+    <t>Estimated $/kWh for fuel… FIXME</t>
+  </si>
 </sst>
 </file>
 
@@ -690,7 +693,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -728,8 +731,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,6 +823,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -829,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1024,6 +1045,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1341,12 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5480" ySplit="5320" topLeftCell="A42" activePane="bottomRight"/>
-      <selection activeCell="A62" sqref="A62:XFD62"/>
-      <selection pane="topRight" activeCell="F81" sqref="F81"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7643,6 +7665,16 @@
     <row r="160" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="52"/>
       <c r="B160" s="47"/>
+      <c r="C160" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D160" s="71">
+        <f>((B149/B155)+(B150+B151+B154+B153))/B156</f>
+        <v>0.18761941388871392</v>
+      </c>
+      <c r="E160" s="72" t="s">
+        <v>96</v>
+      </c>
       <c r="F160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="3"/>
@@ -7727,7 +7759,6 @@
     </row>
     <row r="163" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
-      <c r="B163" s="4"/>
       <c r="C163" s="3"/>
       <c r="D163" s="4"/>
       <c r="E163" s="3"/>

--- a/Fuels_case_input_test_190827.xlsx
+++ b/Fuels_case_input_test_190827.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truggles/IDrive-Sync/Carnegie/SEM-1.2_HOME/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truggles/SEM-1.2_CIW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C879C7-5F13-5243-8DF3-0CCF3C3EBC5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616C457F-358E-364C-A286-EF1A5516BF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="-23080" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_test_190726" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1367,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2835,8 +2837,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="8">
-        <f>(365+1/4-1/100+1/400)*24</f>
-        <v>8765.82</v>
+        <v>8760</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Leap_year", "Reference: # days per year")</f>
@@ -4124,7 +4125,7 @@
       </c>
       <c r="B81" s="26">
         <f>N81</f>
-        <v>1.9528741509529837E-2</v>
+        <v>1.954171608436836E-2</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>93</v>
@@ -4164,7 +4165,7 @@
       </c>
       <c r="N81" s="29">
         <f>M81/HOURS_PER_YEAR</f>
-        <v>1.9528741509529837E-2</v>
+        <v>1.954171608436836E-2</v>
       </c>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
@@ -4400,7 +4401,7 @@
       </c>
       <c r="B87" s="26">
         <f>N87</f>
-        <v>1.9528741509529837E-2</v>
+        <v>1.954171608436836E-2</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>93</v>
@@ -4440,7 +4441,7 @@
       </c>
       <c r="N87" s="29">
         <f>M87/HOURS_PER_YEAR</f>
-        <v>1.9528741509529837E-2</v>
+        <v>1.954171608436836E-2</v>
       </c>
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
@@ -4676,7 +4677,7 @@
       </c>
       <c r="B93" s="26">
         <f>N93</f>
-        <v>2.0648572594225215E-2</v>
+        <v>2.0662291166428225E-2</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>93</v>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="N93" s="29">
         <f>M93/HOURS_PER_YEAR</f>
-        <v>2.0648572594225215E-2</v>
+        <v>2.0662291166428225E-2</v>
       </c>
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
@@ -4952,7 +4953,7 @@
       </c>
       <c r="B99" s="26">
         <f>N99</f>
-        <v>2.0648572594225215E-2</v>
+        <v>2.0662291166428225E-2</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>93</v>
@@ -4992,7 +4993,7 @@
       </c>
       <c r="N99" s="29">
         <f>M99/HOURS_PER_YEAR</f>
-        <v>2.0648572594225215E-2</v>
+        <v>2.0662291166428225E-2</v>
       </c>
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
@@ -5193,7 +5194,7 @@
       </c>
       <c r="B104" s="26">
         <f>N104</f>
-        <v>1.1841887362491711E-2</v>
+        <v>1.1849754917794188E-2</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>93</v>
@@ -5231,7 +5232,7 @@
       </c>
       <c r="N104" s="29">
         <f>M104/HOURS_PER_YEAR</f>
-        <v>1.1841887362491711E-2</v>
+        <v>1.1849754917794188E-2</v>
       </c>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
@@ -5433,7 +5434,7 @@
       </c>
       <c r="B109" s="26">
         <f>N109</f>
-        <v>2.7271220888813726E-2</v>
+        <v>2.7289339439678213E-2</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>93</v>
@@ -5471,7 +5472,7 @@
       </c>
       <c r="N109" s="29">
         <f>M109/HOURS_PER_YEAR</f>
-        <v>2.7271220888813726E-2</v>
+        <v>2.7289339439678213E-2</v>
       </c>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
@@ -5673,7 +5674,7 @@
       </c>
       <c r="B114" s="26">
         <f>N114</f>
-        <v>6.4753901191501415E-2</v>
+        <v>6.4795381249142345E-2</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>93</v>
@@ -5713,7 +5714,7 @@
       </c>
       <c r="N114" s="36">
         <f>M114/HOURS_PER_YEAR+W115/1000</f>
-        <v>6.4753901191501415E-2</v>
+        <v>6.4795381249142345E-2</v>
       </c>
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
@@ -5921,7 +5922,7 @@
       </c>
       <c r="B119" s="26">
         <f>N119</f>
-        <v>4.2392529406082022E-3</v>
+        <v>4.2420694305755928E-3</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>128</v>
@@ -5958,7 +5959,7 @@
       </c>
       <c r="N119" s="29">
         <f>M119/HOURS_PER_YEAR</f>
-        <v>4.2392529406082022E-3</v>
+        <v>4.2420694305755928E-3</v>
       </c>
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
@@ -6127,7 +6128,7 @@
       </c>
       <c r="B123" s="26">
         <f>1.01^(1/HOURS_PER_YEAR)-1</f>
-        <v>1.1351290010175319E-6</v>
+        <v>1.1358831626395727E-6</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>133</v>
@@ -6241,7 +6242,7 @@
       </c>
       <c r="B126" s="26">
         <f>N126</f>
-        <v>4.2392529406082022E-3</v>
+        <v>4.2420694305755928E-3</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>128</v>
@@ -6278,7 +6279,7 @@
       </c>
       <c r="N126" s="29">
         <f>M126/HOURS_PER_YEAR</f>
-        <v>4.2392529406082022E-3</v>
+        <v>4.2420694305755928E-3</v>
       </c>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
@@ -6447,7 +6448,7 @@
       </c>
       <c r="B130" s="26">
         <f>1.01^(1/HOURS_PER_YEAR)-1</f>
-        <v>1.1351290010175319E-6</v>
+        <v>1.1358831626395727E-6</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>133</v>
@@ -6561,7 +6562,7 @@
       </c>
       <c r="B133" s="39">
         <f t="shared" ref="B133:B135" si="6">N133</f>
-        <v>3.2304881600325706E-6</v>
+        <v>3.2326344432621811E-6</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>128</v>
@@ -6597,7 +6598,7 @@
       </c>
       <c r="N133" s="41">
         <f>M133/HOURS_PER_YEAR</f>
-        <v>3.2304881600325706E-6</v>
+        <v>3.2326344432621811E-6</v>
       </c>
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
@@ -6621,7 +6622,7 @@
       </c>
       <c r="B134" s="39">
         <f t="shared" si="6"/>
-        <v>1.184512325345276E-2</v>
+        <v>1.1852992958627998E-2</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>93</v>
@@ -6655,7 +6656,7 @@
       </c>
       <c r="N134" s="29">
         <f>M134/HOURS_PER_YEAR</f>
-        <v>1.184512325345276E-2</v>
+        <v>1.1852992958627998E-2</v>
       </c>
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
@@ -6679,7 +6680,7 @@
       </c>
       <c r="B135" s="39">
         <f t="shared" si="6"/>
-        <v>4.9534151787166088E-2</v>
+        <v>4.9567061463353448E-2</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>93</v>
@@ -6713,7 +6714,7 @@
       </c>
       <c r="N135" s="29">
         <f>M135/HOURS_PER_YEAR</f>
-        <v>4.9534151787166088E-2</v>
+        <v>4.9567061463353448E-2</v>
       </c>
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
@@ -6845,7 +6846,7 @@
       </c>
       <c r="B138" s="42">
         <f>1.0001^(1/HOURS_PER_YEAR)-1</f>
-        <v>1.1407375488659E-8</v>
+        <v>1.1414954537158906E-8</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>133</v>
@@ -7211,7 +7212,7 @@
       </c>
       <c r="B149" s="67">
         <f>N149</f>
-        <v>1.430010548488715E-2</v>
+        <v>1.4309606239901081E-2</v>
       </c>
       <c r="C149" s="53" t="s">
         <v>93</v>
@@ -7243,7 +7244,7 @@
       </c>
       <c r="N149" s="41">
         <f>M149/HOURS_PER_YEAR</f>
-        <v>1.430010548488715E-2</v>
+        <v>1.4309606239901081E-2</v>
       </c>
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
@@ -7264,7 +7265,7 @@
       </c>
       <c r="B150" s="67">
         <f>N150</f>
-        <v>1.6302702492146069E-2</v>
+        <v>1.6313533739692222E-2</v>
       </c>
       <c r="C150" s="53" t="s">
         <v>93</v>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="N150" s="41">
         <f>M150/HOURS_PER_YEAR</f>
-        <v>1.6302702492146069E-2</v>
+        <v>1.6313533739692222E-2</v>
       </c>
       <c r="O150" s="8"/>
       <c r="P150" s="8"/>
@@ -7317,14 +7318,14 @@
       </c>
       <c r="B151" s="67">
         <f>N151</f>
-        <v>2.7204936137143852E-7</v>
+        <v>2.7279082762072303E-7</v>
       </c>
       <c r="C151" s="53" t="s">
         <v>96</v>
       </c>
       <c r="F151" s="8">
-        <f>((33*10^6))/(973*10^9)*1000</f>
-        <v>3.3915724563206573E-2</v>
+        <f>((33*10^6))/(971*10^9)*1000</f>
+        <v>3.3985581874356338E-2</v>
       </c>
       <c r="G151" s="53" t="s">
         <v>202</v>
@@ -7345,11 +7346,11 @@
       <c r="L151" s="4"/>
       <c r="M151" s="28">
         <f t="shared" ref="M151" si="13">F151*J151+K151</f>
-        <v>2.3847357328969834E-3</v>
+        <v>2.3896476499575339E-3</v>
       </c>
       <c r="N151" s="41">
         <f>M151/HOURS_PER_YEAR</f>
-        <v>2.7204936137143852E-7</v>
+        <v>2.7279082762072303E-7</v>
       </c>
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
@@ -7558,7 +7559,7 @@
       </c>
       <c r="B157" s="49">
         <f>B138</f>
-        <v>1.1407375488659E-8</v>
+        <v>1.1414954537158906E-8</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>133</v>
@@ -7670,7 +7671,7 @@
       </c>
       <c r="D160" s="71">
         <f>((B149/B155)+(B150+B151+B154+B153))/B156</f>
-        <v>0.18761941388871392</v>
+        <v>0.18765715303912431</v>
       </c>
       <c r="E160" s="72" t="s">
         <v>96</v>
